--- a/src/test/java/org/inetbanking/testData/LoginTestData.xlsx
+++ b/src/test/java/org/inetbanking/testData/LoginTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Project Name</t>
   </si>
@@ -212,7 +212,10 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>albithar</t>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>dummypwd</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1305,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1327,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
